--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>3.618665040840221</v>
+        <v>4.94226281808</v>
       </c>
       <c r="R2">
-        <v>3.618665040840221</v>
+        <v>44.48036536272</v>
       </c>
       <c r="S2">
-        <v>0.0003856091523186448</v>
+        <v>0.0004650389756901299</v>
       </c>
       <c r="T2">
-        <v>0.0003856091523186448</v>
+        <v>0.0005122066342160279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>188.5567410407957</v>
+        <v>232.67334461886</v>
       </c>
       <c r="R3">
-        <v>188.5567410407957</v>
+        <v>2094.06010156974</v>
       </c>
       <c r="S3">
-        <v>0.02009282546356516</v>
+        <v>0.02189324563155997</v>
       </c>
       <c r="T3">
-        <v>0.02009282546356516</v>
+        <v>0.02411381893391714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>124.500598598599</v>
+        <v>146.93946751566</v>
       </c>
       <c r="R4">
-        <v>124.500598598599</v>
+        <v>1322.45520764094</v>
       </c>
       <c r="S4">
-        <v>0.01326692847968666</v>
+        <v>0.01382617274256611</v>
       </c>
       <c r="T4">
-        <v>0.01326692847968666</v>
+        <v>0.01522852443507453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>146.1354353923162</v>
+        <v>175.02105740094</v>
       </c>
       <c r="R5">
-        <v>146.1354353923162</v>
+        <v>1575.18951660846</v>
       </c>
       <c r="S5">
-        <v>0.01557236183215866</v>
+        <v>0.01646849150963527</v>
       </c>
       <c r="T5">
-        <v>0.01557236183215866</v>
+        <v>0.01813884652194443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H6">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I6">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J6">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>44.17892683508803</v>
+        <v>51.91691387724</v>
       </c>
       <c r="R6">
-        <v>44.17892683508803</v>
+        <v>311.50148326344</v>
       </c>
       <c r="S6">
-        <v>0.004707757787736597</v>
+        <v>0.004885087932220437</v>
       </c>
       <c r="T6">
-        <v>0.004707757787736597</v>
+        <v>0.003587046216787419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>36.81086319217722</v>
+        <v>49.27104956243555</v>
       </c>
       <c r="R7">
-        <v>36.81086319217722</v>
+        <v>443.43944606192</v>
       </c>
       <c r="S7">
-        <v>0.003922608362877709</v>
+        <v>0.004636127066304827</v>
       </c>
       <c r="T7">
-        <v>0.003922608362877709</v>
+        <v>0.005106357025033811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J8">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>1918.09308683732</v>
+        <v>2319.597382121237</v>
       </c>
       <c r="R8">
-        <v>1918.09308683732</v>
+        <v>20876.37643909114</v>
       </c>
       <c r="S8">
-        <v>0.204394228516894</v>
+        <v>0.2182609930514032</v>
       </c>
       <c r="T8">
-        <v>0.204394228516894</v>
+        <v>0.2403986213534054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J9">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>1266.482100618263</v>
+        <v>1464.888058999371</v>
       </c>
       <c r="R9">
-        <v>1266.482100618263</v>
+        <v>13183.99253099434</v>
       </c>
       <c r="S9">
-        <v>0.1349578045313502</v>
+        <v>0.1378376803365586</v>
       </c>
       <c r="T9">
-        <v>0.1349578045313502</v>
+        <v>0.1518181873004497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J10">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>1486.56243643561</v>
+        <v>1744.842698798784</v>
       </c>
       <c r="R10">
-        <v>1486.56243643561</v>
+        <v>15703.58428918906</v>
       </c>
       <c r="S10">
-        <v>0.1584098208906275</v>
+        <v>0.1641798284019654</v>
       </c>
       <c r="T10">
-        <v>0.1584098208906275</v>
+        <v>0.1808321489336201</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J11">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>449.4100485537143</v>
+        <v>517.5768531403066</v>
       </c>
       <c r="R11">
-        <v>449.4100485537143</v>
+        <v>3105.46111884184</v>
       </c>
       <c r="S11">
-        <v>0.04788965707255426</v>
+        <v>0.04870105425085326</v>
       </c>
       <c r="T11">
-        <v>0.04788965707255426</v>
+        <v>0.03576044788300835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H12">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I12">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J12">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>4.428126262648579</v>
+        <v>5.547397235812443</v>
       </c>
       <c r="R12">
-        <v>4.428126262648579</v>
+        <v>49.92657512231199</v>
       </c>
       <c r="S12">
-        <v>0.0004718662808601304</v>
+        <v>0.0005219787015071522</v>
       </c>
       <c r="T12">
-        <v>0.0004718662808601304</v>
+        <v>0.0005749216040110626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H13">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I13">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J13">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>230.7351046805665</v>
+        <v>261.1620458677532</v>
       </c>
       <c r="R13">
-        <v>230.7351046805665</v>
+        <v>2350.458412809779</v>
       </c>
       <c r="S13">
-        <v>0.02458740091217952</v>
+        <v>0.02457387127515417</v>
       </c>
       <c r="T13">
-        <v>0.02458740091217952</v>
+        <v>0.0270663332612613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H14">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I14">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J14">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>152.3502076450594</v>
+        <v>164.9308476566999</v>
       </c>
       <c r="R14">
-        <v>152.3502076450594</v>
+        <v>1484.377628910299</v>
       </c>
       <c r="S14">
-        <v>0.01623461518614063</v>
+        <v>0.01551905984711941</v>
       </c>
       <c r="T14">
-        <v>0.01623461518614063</v>
+        <v>0.01709311654726072</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H15">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I15">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J15">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>178.8245532706304</v>
+        <v>196.4507687618545</v>
       </c>
       <c r="R15">
-        <v>178.8245532706304</v>
+        <v>1768.056918856691</v>
       </c>
       <c r="S15">
-        <v>0.01905575222415089</v>
+        <v>0.01848490613334934</v>
       </c>
       <c r="T15">
-        <v>0.01905575222415089</v>
+        <v>0.02035978068356783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H16">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I16">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J16">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>54.06133587005332</v>
+        <v>58.27366029198733</v>
       </c>
       <c r="R16">
-        <v>54.06133587005332</v>
+        <v>349.6419617519239</v>
       </c>
       <c r="S16">
-        <v>0.005760838779713201</v>
+        <v>0.005483221813450253</v>
       </c>
       <c r="T16">
-        <v>0.005760838779713201</v>
+        <v>0.004026246883298772</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H17">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I17">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J17">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>7.748724348393613</v>
+        <v>9.219197851969778</v>
       </c>
       <c r="R17">
-        <v>7.748724348393613</v>
+        <v>82.972780667728</v>
       </c>
       <c r="S17">
-        <v>0.0008257130720341893</v>
+        <v>0.0008674743702582417</v>
       </c>
       <c r="T17">
-        <v>0.0008257130720341893</v>
+        <v>0.0009554599736489848</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H18">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I18">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J18">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>403.7605564115199</v>
+        <v>434.0241864665028</v>
       </c>
       <c r="R18">
-        <v>403.7605564115199</v>
+        <v>3906.217678198526</v>
       </c>
       <c r="S18">
-        <v>0.04302519413662002</v>
+        <v>0.04083922092543345</v>
       </c>
       <c r="T18">
-        <v>0.04302519413662002</v>
+        <v>0.0449814337888088</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H19">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I19">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J19">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>266.5957774103745</v>
+        <v>274.0979331034896</v>
       </c>
       <c r="R19">
-        <v>266.5957774103745</v>
+        <v>2466.881397931406</v>
       </c>
       <c r="S19">
-        <v>0.02840875587508785</v>
+        <v>0.02579106509328603</v>
       </c>
       <c r="T19">
-        <v>0.02840875587508785</v>
+        <v>0.02840698379028126</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H20">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I20">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J20">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>312.9229131759091</v>
+        <v>326.4807671776282</v>
       </c>
       <c r="R20">
-        <v>312.9229131759091</v>
+        <v>2938.326904598654</v>
       </c>
       <c r="S20">
-        <v>0.03334542930307406</v>
+        <v>0.03071999348059648</v>
       </c>
       <c r="T20">
-        <v>0.03334542930307406</v>
+        <v>0.03383584019056364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H21">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I21">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J21">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>94.60127483185363</v>
+        <v>96.84476898860933</v>
       </c>
       <c r="R21">
-        <v>94.60127483185363</v>
+        <v>581.0686139316559</v>
       </c>
       <c r="S21">
-        <v>0.01008082179048661</v>
+        <v>0.009112544967591632</v>
       </c>
       <c r="T21">
-        <v>0.01008082179048661</v>
+        <v>0.006691204007958849</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H22">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I22">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J22">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>14.37432838809097</v>
+        <v>16.91566863511467</v>
       </c>
       <c r="R22">
-        <v>14.37432838809097</v>
+        <v>101.494011810688</v>
       </c>
       <c r="S22">
-        <v>0.001531745138697497</v>
+        <v>0.001591668736516806</v>
       </c>
       <c r="T22">
-        <v>0.001531745138697497</v>
+        <v>0.001168738290675212</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H23">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I23">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J23">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>748.99900513569</v>
+        <v>796.3609671663494</v>
       </c>
       <c r="R23">
-        <v>748.99900513569</v>
+        <v>4778.165802998096</v>
       </c>
       <c r="S23">
-        <v>0.07981420446442318</v>
+        <v>0.07493306246196589</v>
       </c>
       <c r="T23">
-        <v>0.07981420446442318</v>
+        <v>0.05502221494185403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H24">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I24">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J24">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>494.5504678030734</v>
+        <v>502.9233437004294</v>
       </c>
       <c r="R24">
-        <v>494.5504678030734</v>
+        <v>3017.540062202576</v>
       </c>
       <c r="S24">
-        <v>0.05269987260938992</v>
+        <v>0.04732224189889633</v>
       </c>
       <c r="T24">
-        <v>0.05269987260938992</v>
+        <v>0.03474800681759262</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H25">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I25">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J25">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>580.4899634971641</v>
+        <v>599.0369836931974</v>
       </c>
       <c r="R25">
-        <v>580.4899634971641</v>
+        <v>3594.221902159185</v>
       </c>
       <c r="S25">
-        <v>0.06185768514834641</v>
+        <v>0.05636599176354855</v>
       </c>
       <c r="T25">
-        <v>0.06185768514834641</v>
+        <v>0.0413886956214945</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H26">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I26">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J26">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>175.490794255317</v>
+        <v>177.693769844144</v>
       </c>
       <c r="R26">
-        <v>175.490794255317</v>
+        <v>710.7750793765761</v>
       </c>
       <c r="S26">
-        <v>0.01870050298902657</v>
+        <v>0.01671997863256912</v>
       </c>
       <c r="T26">
-        <v>0.01870050298902657</v>
+        <v>0.008184818360265451</v>
       </c>
     </row>
   </sheetData>
